--- a/1-D Steady State Heat Conduction.xlsx
+++ b/1-D Steady State Heat Conduction.xlsx
@@ -13,10 +13,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1706620929" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1706620929" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1706620929"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1706620929"/>
+      <pm:revision xmlns:pm="smNativeData" day="1706718622" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1706718622" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1706718622" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1706718622"/>
     </ext>
   </extLst>
 </workbook>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;₹&quot;;\-#,##0\ &quot;₹&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;₹&quot;;[Red]\-#,##0\ &quot;₹&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₹&quot;;\-#,##0.00\ &quot;₹&quot;"/>
@@ -68,10 +68,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₹_-;\-* #,##0\ _₹_-;_-* &quot;-&quot;\ _₹_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₹&quot;_-;\-* #,##0.00\ &quot;₹&quot;_-;_-* &quot;-&quot;??\ &quot;₹&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₹_-;\-* #,##0.00\ _₹_-;_-* &quot;-&quot;??\ _₹_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="1" formatCode="0"/>
-    <numFmt numFmtId="2" formatCode="0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -81,7 +78,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706620929" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706718622" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -96,7 +93,7 @@
       <sz val="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706620929" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706718622" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="400" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -112,7 +109,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706620929" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706718622" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -121,41 +118,12 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706620929" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -177,22 +145,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF9E"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706620929" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706620929" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1706718622" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -203,18 +160,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706620929" type="1" fgLvl="64" fgClr="0000FFFF" bgLvl="36" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF919191"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706620929" type="1" fgLvl="57" fgClr="00FFFFFF" bgLvl="43" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1706718622" type="1" fgLvl="64" fgClr="0000FFFF" bgLvl="36" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -225,7 +171,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706620929" type="1" fgLvl="76" fgClr="00FF00FF" bgLvl="24" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1706718622" type="1" fgLvl="76" fgClr="00FF00FF" bgLvl="24" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -234,10 +180,18 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1706718622" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="12">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -253,7 +207,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929"/>
+          <pm:border xmlns:pm="smNativeData" id="1706718622"/>
         </ext>
       </extLst>
     </border>
@@ -261,145 +215,18 @@
       <left style="none">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
-            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
-            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
-            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
+          <pm:border xmlns:pm="smNativeData" id="1706718622">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -421,7 +248,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
+          <pm:border xmlns:pm="smNativeData" id="1706718622">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -433,7 +260,7 @@
       <left style="none">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
@@ -444,29 +271,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
-            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
+          <pm:border xmlns:pm="smNativeData" id="1706718622">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -489,7 +294,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
+          <pm:border xmlns:pm="smNativeData" id="1706718622">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -513,7 +318,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
+          <pm:border xmlns:pm="smNativeData" id="1706718622">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -537,7 +342,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
+          <pm:border xmlns:pm="smNativeData" id="1706718622">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -560,7 +365,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929"/>
+          <pm:border xmlns:pm="smNativeData" id="1706718622"/>
         </ext>
       </extLst>
     </border>
@@ -579,7 +384,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929"/>
+          <pm:border xmlns:pm="smNativeData" id="1706718622"/>
         </ext>
       </extLst>
     </border>
@@ -598,7 +403,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929"/>
+          <pm:border xmlns:pm="smNativeData" id="1706718622"/>
         </ext>
       </extLst>
     </border>
@@ -606,78 +411,18 @@
       <left style="none">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706620929">
+          <pm:border xmlns:pm="smNativeData" id="1706718622">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -685,47 +430,54 @@
         </ext>
       </extLst>
     </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1706718622"/>
+        </ext>
+      </extLst>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -733,9 +485,15 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1706620929" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1706718622" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1706718622" count="4">
+        <pm:color name="Color 24" rgb="FFFF9E"/>
+        <pm:color name="Color 25" rgb="5CFFFF"/>
+        <pm:color name="Color 26" rgb="919191"/>
+        <pm:color name="Color 27" rgb="FF3DFF"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -999,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K14" sqref="K13:K14"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -1094,22 +852,22 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1117,14 +875,22 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="E10" s="13" t="n">
-        <v>46.1000000000000014</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="10" t="n">
+      <c r="E10" s="6" t="n">
+        <v>46.1000000000000014</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>44.3400000000000034</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>42.5799999999999983</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>40.8100000000000023</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>39.0600000000000023</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <v>37.2999999999999972</v>
       </c>
     </row>
@@ -1158,16 +924,16 @@
       <c r="C15" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="E15" s="17" t="n">
+      <c r="E15" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="G15" s="17" t="n">
+      <c r="G15" s="11" t="n">
         <v>40</v>
       </c>
       <c r="H15" t="n">
@@ -1181,19 +947,19 @@
       <c r="C16" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="11">
         <f>(C15+E15)/2</f>
         <v>43.0499999999999972</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <f>(D15+F15)/2</f>
         <v>40</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="11">
         <f>(E15+G15)/2</f>
         <v>40</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="11">
         <f>(F15+H15)/2</f>
         <v>38.6499999999999986</v>
       </c>
@@ -1208,19 +974,19 @@
       <c r="C17" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="11">
         <f>(C16+E16)/2</f>
         <v>43.0499999999999972</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="11">
         <f>(D16+F16)/2</f>
         <v>41.5249999999999986</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="11">
         <f>(E16+G16)/2</f>
         <v>39.3250000000000028</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="11">
         <f>(F16+H16)/2</f>
         <v>38.6499999999999986</v>
       </c>
@@ -1235,19 +1001,19 @@
       <c r="C18" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="11">
         <f>(C17+E17)/2</f>
         <v>43.8125</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="11">
         <f>(D17+F17)/2</f>
         <v>41.1875</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="11">
         <f>(E17+G17)/2</f>
         <v>40.0874999999999986</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="11">
         <f>(F17+H17)/2</f>
         <v>38.3125</v>
       </c>
@@ -1262,19 +1028,19 @@
       <c r="C19" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="11">
         <f>(C18+E18)/2</f>
         <v>43.6437499999999972</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="11">
         <f>(D18+F18)/2</f>
         <v>41.9500000000000028</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="11">
         <f>(E18+G18)/2</f>
         <v>39.75</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="11">
         <f>(F18+H18)/2</f>
         <v>38.6937500000000014</v>
       </c>
@@ -1289,19 +1055,19 @@
       <c r="C20" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="11">
         <f>(C19+E19)/2</f>
         <v>44.0249999999999986</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="11">
         <f>(D19+F19)/2</f>
         <v>41.6968749999999986</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <f>(E19+G19)/2</f>
         <v>40.3218749999999986</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="11">
         <f>(F19+H19)/2</f>
         <v>38.5249999999999986</v>
       </c>
@@ -1316,19 +1082,19 @@
       <c r="C21" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="11">
         <f>(C20+E20)/2</f>
         <v>43.8984375</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="11">
         <f>(D20+F20)/2</f>
         <v>42.1734374999999986</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="11">
         <f>(E20+G20)/2</f>
         <v>40.1109374999999986</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="11">
         <f>(F20+H20)/2</f>
         <v>38.8109375000000014</v>
       </c>
@@ -1343,19 +1109,19 @@
       <c r="C22" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="11">
         <f>(C21+E21)/2</f>
         <v>44.13671875</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="11">
         <f>(D21+F21)/2</f>
         <v>42.0046875000000028</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="11">
         <f>(E21+G21)/2</f>
         <v>40.4921875</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="11">
         <f>(F21+H21)/2</f>
         <v>38.7054687500000014</v>
       </c>
@@ -1370,19 +1136,19 @@
       <c r="C23" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="11">
         <f>(C22+E22)/2</f>
         <v>44.0523437499999986</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="11">
         <f>(D22+F22)/2</f>
         <v>42.314453125</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="11">
         <f>(E22+G22)/2</f>
         <v>40.3550781249999986</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="11">
         <f>(F22+H22)/2</f>
         <v>38.8960937499999986</v>
       </c>
@@ -1397,19 +1163,19 @@
       <c r="C24" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="11">
         <f>(C23+E23)/2</f>
         <v>44.2072265624999972</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="11">
         <f>(D23+F23)/2</f>
         <v>42.2037109374999986</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="11">
         <f>(E23+G23)/2</f>
         <v>40.6052734375000028</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="11">
         <f>(F23+H23)/2</f>
         <v>38.8275390625000014</v>
       </c>
@@ -1424,19 +1190,19 @@
       <c r="C25" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="11">
         <f>(C24+E24)/2</f>
         <v>44.15185546875</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="11">
         <f>(D24+F24)/2</f>
         <v>42.40625</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="11">
         <f>(E24+G24)/2</f>
         <v>40.515625</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="11">
         <f>(F24+H24)/2</f>
         <v>38.95263671875</v>
       </c>
@@ -1451,19 +1217,19 @@
       <c r="C26" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="11">
         <f>(C25+E25)/2</f>
         <v>44.2531249999999972</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="11">
         <f>(D25+F25)/2</f>
         <v>42.333740234375</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="11">
         <f>(E25+G25)/2</f>
         <v>40.679443359375</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="11">
         <f>(F25+H25)/2</f>
         <v>38.9078124999999986</v>
       </c>
@@ -1478,19 +1244,19 @@
       <c r="C27" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="11">
         <f>(C26+E26)/2</f>
         <v>44.2168701171874972</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="11">
         <f>(D26+F26)/2</f>
         <v>42.4662841796874986</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="11">
         <f>(E26+G26)/2</f>
         <v>40.6207763671875028</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="11">
         <f>(F26+H26)/2</f>
         <v>38.9897216796874986</v>
       </c>
@@ -1505,19 +1271,19 @@
       <c r="C28" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="11">
         <f>(C27+E27)/2</f>
         <v>44.28314208984375</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="11">
         <f>(D27+F27)/2</f>
         <v>42.4188232421875</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="11">
         <f>(E27+G27)/2</f>
         <v>40.7280029296874986</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="11">
         <f>(F27+H27)/2</f>
         <v>38.96038818359375</v>
       </c>
@@ -1532,19 +1298,19 @@
       <c r="C29" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="11">
         <f>(C28+E28)/2</f>
         <v>44.2594116210937472</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="11">
         <f>(D28+F28)/2</f>
         <v>42.5055725097656492</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="11">
         <f>(E28+G28)/2</f>
         <v>40.6896057128906534</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="11">
         <f>(F28+H28)/2</f>
         <v>39.0140014648437514</v>
       </c>
@@ -1559,19 +1325,19 @@
       <c r="C30" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="11">
         <f>(C29+E29)/2</f>
         <v>44.3027862548828466</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="11">
         <f>(D29+F29)/2</f>
         <v>42.47450866699225</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="11">
         <f>(E29+G29)/2</f>
         <v>40.75978698730475</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="11">
         <f>(F29+H29)/2</f>
         <v>38.9948028564453466</v>
       </c>
@@ -1586,19 +1352,19 @@
       <c r="C31" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="11">
         <f>(C30+E30)/2</f>
         <v>44.2872543334961506</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="11">
         <f>(D30+F30)/2</f>
         <v>42.5312866210938481</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="11">
         <f>(E30+G30)/2</f>
         <v>40.7346557617188481</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="11">
         <f>(F30+H30)/2</f>
         <v>39.029893493652402</v>
       </c>
@@ -1613,19 +1379,19 @@
       <c r="C32" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="11">
         <f>(C31+E31)/2</f>
         <v>44.3156433105469532</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="11">
         <f>(D31+F31)/2</f>
         <v>42.5109550476075526</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="11">
         <f>(E31+G31)/2</f>
         <v>40.7805900573731535</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="11">
         <f>(F31+H31)/2</f>
         <v>39.0173278808594475</v>
       </c>
@@ -1640,19 +1406,19 @@
       <c r="C33" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="11">
         <f>(C32+E32)/2</f>
         <v>44.3054775238038019</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="11">
         <f>(D32+F32)/2</f>
         <v>42.548116683960103</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="11">
         <f>(E32+G32)/2</f>
         <v>40.7641414642335533</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="11">
         <f>(F32+H32)/2</f>
         <v>39.0402950286866002</v>
       </c>
@@ -1667,19 +1433,19 @@
       <c r="C34" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="11">
         <f>(C33+E33)/2</f>
         <v>44.3240583419800487</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="11">
         <f>(D33+F33)/2</f>
         <v>42.5348094940187025</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="11">
         <f>(E33+G33)/2</f>
         <v>40.7942058563233516</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="11">
         <f>(F33+H33)/2</f>
         <v>39.0320707321168001</v>
       </c>
@@ -1694,19 +1460,19 @@
       <c r="C35" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="11">
         <f>(C34+E34)/2</f>
         <v>44.3174047470093484</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="11">
         <f>(D34+F34)/2</f>
         <v>42.5591320991517534</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="11">
         <f>(E34+G34)/2</f>
         <v>40.7834401130677477</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="11">
         <f>(F34+H34)/2</f>
         <v>39.0471029281616993</v>
       </c>
@@ -1721,19 +1487,19 @@
       <c r="C36" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="11">
         <f>(C35+E35)/2</f>
         <v>44.3295660495759023</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="11">
         <f>(D35+F35)/2</f>
         <v>42.5504224300386014</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="11">
         <f>(E35+G35)/2</f>
         <v>40.8031175136567512</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="11">
         <f>(F35+H35)/2</f>
         <v>39.0417200565338973</v>
       </c>
@@ -1748,19 +1514,19 @@
       <c r="C37" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="11">
         <f>(C36+E36)/2</f>
         <v>44.3252112150193014</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="11">
         <f>(D36+F36)/2</f>
         <v>42.5663417816163516</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="11">
         <f>(E36+G36)/2</f>
         <v>40.7960712432862493</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="11">
         <f>(F36+H36)/2</f>
         <v>39.0515587568283991</v>
       </c>
@@ -1775,19 +1541,19 @@
       <c r="C38" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="11">
         <f>(C37+E37)/2</f>
         <v>44.3331708908081978</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="11">
         <f>(D37+F37)/2</f>
         <v>42.5606412291528002</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="11">
         <f>(E37+G37)/2</f>
         <v>40.8089502692224002</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="11">
         <f>(F37+H37)/2</f>
         <v>39.0480356216431517</v>
       </c>
@@ -1802,19 +1568,19 @@
       <c r="C39" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="11">
         <f>(C38+E38)/2</f>
         <v>44.3303206145764008</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="11">
         <f>(D38+F38)/2</f>
         <v>42.571060580015299</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="11">
         <f>(E38+G38)/2</f>
         <v>40.8043384253980008</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="11">
         <f>(F38+H38)/2</f>
         <v>39.0544751346112022</v>
       </c>
@@ -1829,19 +1595,19 @@
       <c r="C40" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="11">
         <f>(C39+E39)/2</f>
         <v>44.3355302900076467</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="11">
         <f>(D39+F39)/2</f>
         <v>42.5673295199871973</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="11">
         <f>(E39+G39)/2</f>
         <v>40.8127678573132471</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="11">
         <f>(F39+H39)/2</f>
         <v>39.052169212698999</v>
       </c>
@@ -1856,19 +1622,19 @@
       <c r="C41" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="11">
         <f>(C40+E40)/2</f>
         <v>44.3336647599936029</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="11">
         <f>(D40+F40)/2</f>
         <v>42.5741490736605002</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="11">
         <f>(E40+G40)/2</f>
         <v>40.8097493663430981</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="11">
         <f>(F40+H40)/2</f>
         <v>39.0563839286566505</v>
       </c>
@@ -1883,19 +1649,19 @@
       <c r="C42" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="11">
         <f>(C41+E41)/2</f>
         <v>44.3370745368302508</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="11">
         <f>(D41+F41)/2</f>
         <v>42.571707063168347</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="11">
         <f>(E41+G41)/2</f>
         <v>40.8152665011585967</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="11">
         <f>(F41+H41)/2</f>
         <v>39.0548746831715476</v>
       </c>
@@ -1910,19 +1676,19 @@
       <c r="C43" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="11">
         <f>(C42+E42)/2</f>
         <v>44.3358535315841991</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="11">
         <f>(D42+F42)/2</f>
         <v>42.5761705189944522</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="11">
         <f>(E42+G42)/2</f>
         <v>40.813290873169997</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="11">
         <f>(F42+H42)/2</f>
         <v>39.0576332505793005</v>
       </c>
@@ -1937,19 +1703,19 @@
       <c r="C44" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="11">
         <f>(C43+E43)/2</f>
         <v>44.3380852594972481</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="11">
         <f>(D43+F43)/2</f>
         <v>42.5745722023770981</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="11">
         <f>(E43+G43)/2</f>
         <v>40.8169018847869012</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="11">
         <f>(F43+H43)/2</f>
         <v>39.0566454365850007</v>
       </c>
@@ -1964,19 +1730,19 @@
       <c r="C45" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="11">
         <f>(C44+E44)/2</f>
         <v>44.3372861011885533</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="11">
         <f>(D44+F44)/2</f>
         <v>42.5774935721421031</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="11">
         <f>(E44+G44)/2</f>
         <v>40.8156088194810494</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="11">
         <f>(F44+H44)/2</f>
         <v>39.0584509423934492</v>
       </c>
@@ -1991,19 +1757,19 @@
       <c r="C46" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="11">
         <f>(C45+E45)/2</f>
         <v>44.3387467860710487</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="11">
         <f>(D45+F45)/2</f>
         <v>42.5764474603348475</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="11">
         <f>(E45+G45)/2</f>
         <v>40.8179722572677974</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="11">
         <f>(F45+H45)/2</f>
         <v>39.0578044097405481</v>
       </c>
@@ -2018,19 +1784,19 @@
       <c r="C47" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="11">
         <f>(C46+E46)/2</f>
         <v>44.3382237301674493</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="11">
         <f>(D46+F46)/2</f>
         <v>42.5783595216694479</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="11">
         <f>(E46+G46)/2</f>
         <v>40.8171259350377511</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="11">
         <f>(F46+H46)/2</f>
         <v>39.0589861286338973</v>
       </c>
@@ -2045,19 +1811,19 @@
       <c r="C48" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="11">
         <f>(C47+E47)/2</f>
         <v>44.3391797608347531</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="11">
         <f>(D47+F47)/2</f>
         <v>42.5776748326026535</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="11">
         <f>(E47+G47)/2</f>
         <v>40.818672825151701</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="11">
         <f>(F47+H47)/2</f>
         <v>39.0585629675189026</v>
       </c>
@@ -2072,19 +1838,19 @@
       <c r="C49" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="11">
         <f>(C48+E48)/2</f>
         <v>44.3388374163013523</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="11">
         <f>(D48+F48)/2</f>
         <v>42.5789262929932519</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="11">
         <f>(E48+G48)/2</f>
         <v>40.8181189000608029</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="11">
         <f>(F48+H48)/2</f>
         <v>39.0593364125758526</v>
       </c>
@@ -2099,19 +1865,19 @@
       <c r="C50" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="11">
         <f>(C49+E49)/2</f>
         <v>44.339463146496648</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="11">
         <f>(D49+F49)/2</f>
         <v>42.5784781581810989</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="11">
         <f>(E49+G49)/2</f>
         <v>40.819131352784602</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="11">
         <f>(F49+H49)/2</f>
         <v>39.0590594500303965</v>
       </c>
@@ -2126,19 +1892,19 @@
       <c r="C51" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="11">
         <f>(C50+E50)/2</f>
         <v>44.3392390790905466</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="11">
         <f>(D50+F50)/2</f>
         <v>42.5792972496406534</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="11">
         <f>(E50+G50)/2</f>
         <v>40.8187688041057513</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="11">
         <f>(F50+H50)/2</f>
         <v>39.0595656763923031</v>
       </c>
@@ -2153,19 +1919,19 @@
       <c r="C52" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="11">
         <f>(C51+E51)/2</f>
         <v>44.3396486248203487</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="11">
         <f>(D51+F51)/2</f>
         <v>42.5790039415982022</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="11">
         <f>(E51+G51)/2</f>
         <v>40.8194314630164996</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="11">
         <f>(F51+H51)/2</f>
         <v>39.0593844020528991</v>
       </c>
@@ -2180,19 +1946,19 @@
       <c r="C53" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="11">
         <f>(C52+E52)/2</f>
         <v>44.3395019707990983</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="11">
         <f>(D52+F52)/2</f>
         <v>42.579540043918449</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="11">
         <f>(E52+G52)/2</f>
         <v>40.8191941718255507</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="11">
         <f>(F52+H52)/2</f>
         <v>39.0597157315082484</v>
       </c>
@@ -2207,19 +1973,19 @@
       <c r="C54" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="11">
         <f>(C53+E53)/2</f>
         <v>44.3397700219592465</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="11">
         <f>(D53+F53)/2</f>
         <v>42.5793480713123529</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="11">
         <f>(E53+G53)/2</f>
         <v>40.819627887713402</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="11">
         <f>(F53+H53)/2</f>
         <v>39.0595970859127988</v>
       </c>
@@ -2234,19 +2000,19 @@
       <c r="C55" t="n">
         <v>46.1000000000000014</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="11">
         <f>(C54+E54)/2</f>
         <v>44.339674035656202</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="11">
         <f>(D54+F54)/2</f>
         <v>42.5796989548363527</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="11">
         <f>(E54+G54)/2</f>
         <v>40.8194725786125971</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="11">
         <f>(F54+H54)/2</f>
         <v>39.0598139438567031</v>
       </c>
@@ -2263,7 +2029,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1706620929" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1706718622" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2272,16 +2038,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1706620929" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1706620929" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706620929" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706620929" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1706718622" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1706718622" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706718622" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706718622" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706620929" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706718622" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
